--- a/PAMH/PAMH_DatosEscalon_Gr2LabControl.xlsx
+++ b/PAMH/PAMH_DatosEscalon_Gr2LabControl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Documents\TEC\Semestre 14\Lab Control Automatico\Tareas\PAMH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0811E81-EB54-493B-9140-FE1DDBECC0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABF7FE3-3FBA-4397-8D42-B305CF7AB0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PAMH_DatosEscalon_Gr2LabControl" sheetId="1" r:id="rId1"/>
@@ -516,48 +516,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,7 +575,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -612,7 +612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -625,6 +625,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAMH_DatosEscalon_Gr2LabControl!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESTIMULO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -18268,13 +18279,24 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-10BB-4CCA-8039-79AF66187DED}"/>
+              <c16:uniqueId val="{00000000-7944-4207-B737-67266D69D60A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAMH_DatosEscalon_Gr2LabControl!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ANGULO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -35918,7 +35940,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-10BB-4CCA-8039-79AF66187DED}"/>
+              <c16:uniqueId val="{00000001-7944-4207-B737-67266D69D60A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -35930,14 +35952,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119507584"/>
-        <c:axId val="2128921744"/>
+        <c:axId val="1216286032"/>
+        <c:axId val="1216286864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119507584"/>
+        <c:axId val="1216286032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -35955,36 +35976,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-419"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -36019,15 +36010,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128921744"/>
+        <c:crossAx val="1216286864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128921744"/>
+        <c:axId val="1216286864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36047,36 +36038,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-419"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -36111,10 +36072,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119507584"/>
+        <c:crossAx val="1216286032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -36153,7 +36114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -36190,7 +36151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -36761,23 +36722,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2281FE-7095-4F37-8B2F-D22D9BD4CF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211435F8-8B34-45D7-83C9-C6A2A7D5A188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36799,7 +36760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -37098,10 +37059,10 @@
   <dimension ref="A1:C2936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
